--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Baby ID</t>
   </si>
@@ -243,26 +243,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">1.Required
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>2.Format：</t>
-    </r>
-  </si>
-  <si>
     <t>1.Required</t>
   </si>
   <si>
@@ -284,7 +264,7 @@
         <color indexed="8"/>
         <rFont val="Monaco"/>
       </rPr>
-      <t>2.Relatives Options: Monther/Father/Grandmother</t>
+      <t>2.Relatives Options: Mother/Father/Grandmother</t>
     </r>
     <r>
       <rPr>
@@ -374,15 +354,6 @@
       <t xml:space="preserve">1.Required
 </t>
     </r>
-    <r>
-      <rPr>
-        <strike val="1"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>2.Validate:</t>
-    </r>
   </si>
   <si>
     <t>Wechat</t>
@@ -422,10 +393,10 @@
       <name val="Monaco"/>
     </font>
     <font>
-      <strike val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Monaco"/>
+      <b val="1"/>
+      <sz val="16"/>
+      <color indexed="13"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -477,7 +448,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -517,6 +488,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -541,6 +521,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ff4a4a4a"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1725,23 +1706,23 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" t="s" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s" s="6">
         <v>30</v>
       </c>
       <c r="N2" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="O2" t="s" s="6">
+      <c r="P2" t="s" s="7">
         <v>40</v>
-      </c>
-      <c r="P2" t="s" s="7">
-        <v>41</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -1769,9 +1750,9 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="11"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -1789,21 +1770,21 @@
       <c r="AC3" s="12"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -1833,7 +1814,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1864,7 +1845,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -1895,7 +1876,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1926,7 +1907,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1957,7 +1938,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -1988,7 +1969,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -2019,7 +2000,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -2050,7 +2031,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -2081,7 +2062,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -2112,7 +2093,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -2143,7 +2124,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -2174,7 +2155,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -2205,7 +2186,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -2236,7 +2217,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -2267,7 +2248,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -2298,7 +2279,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -2329,7 +2310,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -2360,7 +2341,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -2391,7 +2372,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -2422,7 +2403,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="13"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -2453,7 +2434,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -2484,7 +2465,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -2515,7 +2496,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -2546,7 +2527,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -2577,7 +2558,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="16"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -2608,7 +2589,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="13"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -2639,7 +2620,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -2670,7 +2651,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -2701,7 +2682,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -2732,7 +2713,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -2763,7 +2744,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="16"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -2794,7 +2775,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="16"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -2825,7 +2806,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="16"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -2856,7 +2837,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="13"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -2887,7 +2868,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -2918,7 +2899,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="13"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -2949,7 +2930,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
+      <c r="N41" s="16"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -2980,7 +2961,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="13"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -3011,7 +2992,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
+      <c r="N43" s="16"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -3042,7 +3023,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="13"/>
+      <c r="N44" s="16"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -3073,7 +3054,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="16"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
@@ -3104,7 +3085,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="13"/>
+      <c r="N46" s="16"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -3135,7 +3116,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="13"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
@@ -3166,7 +3147,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="16"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -3197,7 +3178,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
-      <c r="N49" s="13"/>
+      <c r="N49" s="16"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -3228,7 +3209,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="13"/>
+      <c r="N50" s="16"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -3259,7 +3240,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="13"/>
+      <c r="N51" s="16"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -3290,7 +3271,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="13"/>
+      <c r="N52" s="16"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -3321,7 +3302,7 @@
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="13"/>
+      <c r="N53" s="16"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -3352,7 +3333,7 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
-      <c r="N54" s="13"/>
+      <c r="N54" s="16"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -3383,7 +3364,7 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
-      <c r="N55" s="13"/>
+      <c r="N55" s="16"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -3414,7 +3395,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="13"/>
+      <c r="N56" s="16"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -3445,7 +3426,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
+      <c r="N57" s="16"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -3476,7 +3457,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
+      <c r="N58" s="16"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -3507,7 +3488,7 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="13"/>
+      <c r="N59" s="16"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -3538,7 +3519,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
-      <c r="N60" s="13"/>
+      <c r="N60" s="16"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -3569,7 +3550,7 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
-      <c r="N61" s="13"/>
+      <c r="N61" s="16"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -3600,7 +3581,7 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
-      <c r="N62" s="13"/>
+      <c r="N62" s="16"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -3631,7 +3612,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
-      <c r="N63" s="13"/>
+      <c r="N63" s="16"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -3662,7 +3643,7 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="13"/>
+      <c r="N64" s="16"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -3693,7 +3674,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
+      <c r="N65" s="16"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -3724,7 +3705,7 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
-      <c r="N66" s="13"/>
+      <c r="N66" s="16"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -3755,7 +3736,7 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
-      <c r="N67" s="13"/>
+      <c r="N67" s="16"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -3786,7 +3767,7 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
-      <c r="N68" s="13"/>
+      <c r="N68" s="16"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -3817,7 +3798,7 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
-      <c r="N69" s="13"/>
+      <c r="N69" s="16"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -3848,7 +3829,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
-      <c r="N70" s="13"/>
+      <c r="N70" s="16"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -3879,7 +3860,7 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
-      <c r="N71" s="13"/>
+      <c r="N71" s="16"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -3910,7 +3891,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
-      <c r="N72" s="13"/>
+      <c r="N72" s="16"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -3941,7 +3922,7 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
-      <c r="N73" s="13"/>
+      <c r="N73" s="16"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -3972,7 +3953,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
-      <c r="N74" s="13"/>
+      <c r="N74" s="16"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -4003,7 +3984,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
-      <c r="N75" s="13"/>
+      <c r="N75" s="16"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -4034,7 +4015,7 @@
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
-      <c r="N76" s="13"/>
+      <c r="N76" s="16"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -4065,7 +4046,7 @@
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
-      <c r="N77" s="13"/>
+      <c r="N77" s="16"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -4096,7 +4077,7 @@
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
-      <c r="N78" s="13"/>
+      <c r="N78" s="16"/>
       <c r="O78" s="12"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -4127,7 +4108,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
-      <c r="N79" s="13"/>
+      <c r="N79" s="16"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -4158,7 +4139,7 @@
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
-      <c r="N80" s="13"/>
+      <c r="N80" s="16"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -4189,7 +4170,7 @@
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
-      <c r="N81" s="13"/>
+      <c r="N81" s="16"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -4220,7 +4201,7 @@
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
-      <c r="N82" s="13"/>
+      <c r="N82" s="16"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -4251,7 +4232,7 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
-      <c r="N83" s="13"/>
+      <c r="N83" s="16"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -4282,7 +4263,7 @@
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
-      <c r="N84" s="13"/>
+      <c r="N84" s="16"/>
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -4313,7 +4294,7 @@
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="13"/>
+      <c r="N85" s="16"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -4344,7 +4325,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
-      <c r="N86" s="13"/>
+      <c r="N86" s="16"/>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -4375,7 +4356,7 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="13"/>
+      <c r="N87" s="16"/>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -4406,7 +4387,7 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
-      <c r="N88" s="13"/>
+      <c r="N88" s="16"/>
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -4437,7 +4418,7 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="13"/>
+      <c r="N89" s="16"/>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -4468,7 +4449,7 @@
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="13"/>
+      <c r="N90" s="16"/>
       <c r="O90" s="12"/>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -4499,7 +4480,7 @@
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
-      <c r="N91" s="13"/>
+      <c r="N91" s="16"/>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -4530,7 +4511,7 @@
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
-      <c r="N92" s="13"/>
+      <c r="N92" s="16"/>
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -4561,7 +4542,7 @@
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
-      <c r="N93" s="13"/>
+      <c r="N93" s="16"/>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -4592,7 +4573,7 @@
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
-      <c r="N94" s="13"/>
+      <c r="N94" s="16"/>
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -4623,7 +4604,7 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
-      <c r="N95" s="13"/>
+      <c r="N95" s="16"/>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -4654,7 +4635,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
-      <c r="N96" s="13"/>
+      <c r="N96" s="16"/>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -4685,7 +4666,7 @@
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
-      <c r="N97" s="13"/>
+      <c r="N97" s="16"/>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -4716,7 +4697,7 @@
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
-      <c r="N98" s="13"/>
+      <c r="N98" s="16"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -4747,7 +4728,7 @@
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
-      <c r="N99" s="13"/>
+      <c r="N99" s="16"/>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -4778,7 +4759,7 @@
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
-      <c r="N100" s="13"/>
+      <c r="N100" s="16"/>
       <c r="O100" s="12"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -4809,7 +4790,7 @@
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
-      <c r="N101" s="13"/>
+      <c r="N101" s="16"/>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -4840,7 +4821,7 @@
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
-      <c r="N102" s="13"/>
+      <c r="N102" s="16"/>
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -4871,7 +4852,7 @@
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
-      <c r="N103" s="13"/>
+      <c r="N103" s="16"/>
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -4902,7 +4883,7 @@
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
-      <c r="N104" s="13"/>
+      <c r="N104" s="16"/>
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -4933,7 +4914,7 @@
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
-      <c r="N105" s="13"/>
+      <c r="N105" s="16"/>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -4964,7 +4945,7 @@
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
-      <c r="N106" s="13"/>
+      <c r="N106" s="16"/>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -4995,7 +4976,7 @@
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
-      <c r="N107" s="13"/>
+      <c r="N107" s="16"/>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -5026,7 +5007,7 @@
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
-      <c r="N108" s="13"/>
+      <c r="N108" s="16"/>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -5057,7 +5038,7 @@
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
-      <c r="N109" s="13"/>
+      <c r="N109" s="16"/>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -5088,7 +5069,7 @@
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
-      <c r="N110" s="13"/>
+      <c r="N110" s="16"/>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -5119,7 +5100,7 @@
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
-      <c r="N111" s="13"/>
+      <c r="N111" s="16"/>
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -5150,7 +5131,7 @@
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
-      <c r="N112" s="13"/>
+      <c r="N112" s="16"/>
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -5181,7 +5162,7 @@
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
-      <c r="N113" s="13"/>
+      <c r="N113" s="16"/>
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -5212,7 +5193,7 @@
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="13"/>
+      <c r="N114" s="16"/>
       <c r="O114" s="12"/>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -5243,7 +5224,7 @@
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
-      <c r="N115" s="13"/>
+      <c r="N115" s="16"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -5274,7 +5255,7 @@
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
-      <c r="N116" s="13"/>
+      <c r="N116" s="16"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -5305,7 +5286,7 @@
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
-      <c r="N117" s="13"/>
+      <c r="N117" s="16"/>
       <c r="O117" s="12"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -5336,7 +5317,7 @@
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
-      <c r="N118" s="13"/>
+      <c r="N118" s="16"/>
       <c r="O118" s="12"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -5367,7 +5348,7 @@
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
-      <c r="N119" s="13"/>
+      <c r="N119" s="16"/>
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -5398,7 +5379,7 @@
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
-      <c r="N120" s="13"/>
+      <c r="N120" s="16"/>
       <c r="O120" s="12"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -5429,7 +5410,7 @@
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
-      <c r="N121" s="13"/>
+      <c r="N121" s="16"/>
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -5460,7 +5441,7 @@
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
-      <c r="N122" s="13"/>
+      <c r="N122" s="16"/>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -5491,7 +5472,7 @@
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
-      <c r="N123" s="13"/>
+      <c r="N123" s="16"/>
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -5522,7 +5503,7 @@
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
-      <c r="N124" s="13"/>
+      <c r="N124" s="16"/>
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
@@ -5553,7 +5534,7 @@
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
-      <c r="N125" s="13"/>
+      <c r="N125" s="16"/>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="12"/>
@@ -5584,7 +5565,7 @@
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
-      <c r="N126" s="13"/>
+      <c r="N126" s="16"/>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
@@ -5615,7 +5596,7 @@
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
-      <c r="N127" s="13"/>
+      <c r="N127" s="16"/>
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -5646,7 +5627,7 @@
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
-      <c r="N128" s="13"/>
+      <c r="N128" s="16"/>
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -5677,7 +5658,7 @@
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
-      <c r="N129" s="13"/>
+      <c r="N129" s="16"/>
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -5708,7 +5689,7 @@
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
-      <c r="N130" s="13"/>
+      <c r="N130" s="16"/>
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -5739,7 +5720,7 @@
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
-      <c r="N131" s="13"/>
+      <c r="N131" s="16"/>
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
@@ -5770,7 +5751,7 @@
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
-      <c r="N132" s="13"/>
+      <c r="N132" s="16"/>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -5801,7 +5782,7 @@
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
-      <c r="N133" s="13"/>
+      <c r="N133" s="16"/>
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -5832,7 +5813,7 @@
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
-      <c r="N134" s="13"/>
+      <c r="N134" s="16"/>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -5863,7 +5844,7 @@
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
-      <c r="N135" s="13"/>
+      <c r="N135" s="16"/>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -5894,7 +5875,7 @@
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
-      <c r="N136" s="13"/>
+      <c r="N136" s="16"/>
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -5925,7 +5906,7 @@
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
-      <c r="N137" s="13"/>
+      <c r="N137" s="16"/>
       <c r="O137" s="12"/>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -5956,7 +5937,7 @@
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
-      <c r="N138" s="13"/>
+      <c r="N138" s="16"/>
       <c r="O138" s="12"/>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -5987,7 +5968,7 @@
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
-      <c r="N139" s="13"/>
+      <c r="N139" s="16"/>
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -6018,7 +5999,7 @@
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
-      <c r="N140" s="13"/>
+      <c r="N140" s="16"/>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -6049,7 +6030,7 @@
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
-      <c r="N141" s="13"/>
+      <c r="N141" s="16"/>
       <c r="O141" s="12"/>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -6080,7 +6061,7 @@
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
-      <c r="N142" s="13"/>
+      <c r="N142" s="16"/>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -6111,7 +6092,7 @@
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
-      <c r="N143" s="13"/>
+      <c r="N143" s="16"/>
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -6142,7 +6123,7 @@
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
-      <c r="N144" s="13"/>
+      <c r="N144" s="16"/>
       <c r="O144" s="12"/>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -6173,7 +6154,7 @@
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
-      <c r="N145" s="13"/>
+      <c r="N145" s="16"/>
       <c r="O145" s="12"/>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -6204,7 +6185,7 @@
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
-      <c r="N146" s="13"/>
+      <c r="N146" s="16"/>
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
@@ -6235,7 +6216,7 @@
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
-      <c r="N147" s="13"/>
+      <c r="N147" s="16"/>
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
@@ -6266,7 +6247,7 @@
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
-      <c r="N148" s="13"/>
+      <c r="N148" s="16"/>
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -6297,7 +6278,7 @@
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
-      <c r="N149" s="13"/>
+      <c r="N149" s="16"/>
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -6328,7 +6309,7 @@
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
-      <c r="N150" s="13"/>
+      <c r="N150" s="16"/>
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -6359,7 +6340,7 @@
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
-      <c r="N151" s="13"/>
+      <c r="N151" s="16"/>
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -6390,7 +6371,7 @@
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
-      <c r="N152" s="13"/>
+      <c r="N152" s="16"/>
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -6421,7 +6402,7 @@
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
-      <c r="N153" s="13"/>
+      <c r="N153" s="16"/>
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -6452,7 +6433,7 @@
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
-      <c r="N154" s="13"/>
+      <c r="N154" s="16"/>
       <c r="O154" s="12"/>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -6483,7 +6464,7 @@
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
-      <c r="N155" s="13"/>
+      <c r="N155" s="16"/>
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -6514,7 +6495,7 @@
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
-      <c r="N156" s="13"/>
+      <c r="N156" s="16"/>
       <c r="O156" s="12"/>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -6545,7 +6526,7 @@
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
-      <c r="N157" s="13"/>
+      <c r="N157" s="16"/>
       <c r="O157" s="12"/>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -6576,7 +6557,7 @@
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
-      <c r="N158" s="13"/>
+      <c r="N158" s="16"/>
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -6607,7 +6588,7 @@
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
-      <c r="N159" s="13"/>
+      <c r="N159" s="16"/>
       <c r="O159" s="12"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -6638,7 +6619,7 @@
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
-      <c r="N160" s="13"/>
+      <c r="N160" s="16"/>
       <c r="O160" s="12"/>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -6669,7 +6650,7 @@
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
-      <c r="N161" s="13"/>
+      <c r="N161" s="16"/>
       <c r="O161" s="12"/>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -6700,7 +6681,7 @@
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
-      <c r="N162" s="13"/>
+      <c r="N162" s="16"/>
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -6731,7 +6712,7 @@
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
-      <c r="N163" s="13"/>
+      <c r="N163" s="16"/>
       <c r="O163" s="12"/>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -6762,7 +6743,7 @@
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
-      <c r="N164" s="13"/>
+      <c r="N164" s="16"/>
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -6793,7 +6774,7 @@
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
-      <c r="N165" s="13"/>
+      <c r="N165" s="16"/>
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -6824,7 +6805,7 @@
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
-      <c r="N166" s="13"/>
+      <c r="N166" s="16"/>
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -6855,7 +6836,7 @@
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
-      <c r="N167" s="13"/>
+      <c r="N167" s="16"/>
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -6886,7 +6867,7 @@
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
-      <c r="N168" s="13"/>
+      <c r="N168" s="16"/>
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -6917,7 +6898,7 @@
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
-      <c r="N169" s="13"/>
+      <c r="N169" s="16"/>
       <c r="O169" s="12"/>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -6948,7 +6929,7 @@
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
-      <c r="N170" s="13"/>
+      <c r="N170" s="16"/>
       <c r="O170" s="12"/>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -6979,7 +6960,7 @@
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
-      <c r="N171" s="13"/>
+      <c r="N171" s="16"/>
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -7010,7 +6991,7 @@
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
-      <c r="N172" s="13"/>
+      <c r="N172" s="16"/>
       <c r="O172" s="12"/>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -7041,7 +7022,7 @@
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
-      <c r="N173" s="13"/>
+      <c r="N173" s="16"/>
       <c r="O173" s="12"/>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -7072,7 +7053,7 @@
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
-      <c r="N174" s="13"/>
+      <c r="N174" s="16"/>
       <c r="O174" s="12"/>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -7103,7 +7084,7 @@
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
-      <c r="N175" s="13"/>
+      <c r="N175" s="16"/>
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -7134,7 +7115,7 @@
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
-      <c r="N176" s="13"/>
+      <c r="N176" s="16"/>
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -7165,7 +7146,7 @@
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
-      <c r="N177" s="13"/>
+      <c r="N177" s="16"/>
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -7196,7 +7177,7 @@
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
-      <c r="N178" s="13"/>
+      <c r="N178" s="16"/>
       <c r="O178" s="12"/>
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
@@ -7227,7 +7208,7 @@
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
-      <c r="N179" s="13"/>
+      <c r="N179" s="16"/>
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -7258,7 +7239,7 @@
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
-      <c r="N180" s="13"/>
+      <c r="N180" s="16"/>
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -7289,7 +7270,7 @@
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
-      <c r="N181" s="13"/>
+      <c r="N181" s="16"/>
       <c r="O181" s="12"/>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -7320,7 +7301,7 @@
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
-      <c r="N182" s="13"/>
+      <c r="N182" s="16"/>
       <c r="O182" s="12"/>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -7351,7 +7332,7 @@
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
-      <c r="N183" s="13"/>
+      <c r="N183" s="16"/>
       <c r="O183" s="12"/>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -7382,7 +7363,7 @@
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
-      <c r="N184" s="13"/>
+      <c r="N184" s="16"/>
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -7413,7 +7394,7 @@
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
-      <c r="N185" s="13"/>
+      <c r="N185" s="16"/>
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -7444,7 +7425,7 @@
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
-      <c r="N186" s="13"/>
+      <c r="N186" s="16"/>
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -7475,7 +7456,7 @@
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
-      <c r="N187" s="13"/>
+      <c r="N187" s="16"/>
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -7506,7 +7487,7 @@
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
-      <c r="N188" s="13"/>
+      <c r="N188" s="16"/>
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -7537,7 +7518,7 @@
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
-      <c r="N189" s="13"/>
+      <c r="N189" s="16"/>
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -7568,7 +7549,7 @@
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
-      <c r="N190" s="13"/>
+      <c r="N190" s="16"/>
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -7599,7 +7580,7 @@
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
-      <c r="N191" s="13"/>
+      <c r="N191" s="16"/>
       <c r="O191" s="12"/>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
@@ -7630,7 +7611,7 @@
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
-      <c r="N192" s="13"/>
+      <c r="N192" s="16"/>
       <c r="O192" s="12"/>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -7661,7 +7642,7 @@
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
-      <c r="N193" s="13"/>
+      <c r="N193" s="16"/>
       <c r="O193" s="12"/>
       <c r="P193" s="12"/>
       <c r="Q193" s="12"/>
@@ -7692,7 +7673,7 @@
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
       <c r="M194" s="12"/>
-      <c r="N194" s="13"/>
+      <c r="N194" s="16"/>
       <c r="O194" s="12"/>
       <c r="P194" s="12"/>
       <c r="Q194" s="12"/>
@@ -7723,7 +7704,7 @@
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
       <c r="M195" s="12"/>
-      <c r="N195" s="13"/>
+      <c r="N195" s="16"/>
       <c r="O195" s="12"/>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -7754,7 +7735,7 @@
       <c r="K196" s="12"/>
       <c r="L196" s="12"/>
       <c r="M196" s="12"/>
-      <c r="N196" s="13"/>
+      <c r="N196" s="16"/>
       <c r="O196" s="12"/>
       <c r="P196" s="12"/>
       <c r="Q196" s="12"/>
@@ -7773,14 +7754,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N196">
-      <formula1>"妈妈,爸爸,奶奶,爷爷,外婆,外公,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B196">
       <formula1>"待产期,已出生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D196">
       <formula1>"男,女,未知"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N196">
+      <formula1>"妈妈,爸爸,奶奶,爷爷,外婆,外公,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -25,7 +25,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Due Day</t>
+    <t>Due Date</t>
   </si>
   <si>
     <t>Birth Day</t>
@@ -356,7 +356,7 @@
     </r>
   </si>
   <si>
-    <t>Wechat</t>
+    <t>WeChat/WhatApp/Telegram/…</t>
   </si>
 </sst>
 </file>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -31,7 +31,7 @@
     <t>Birth Day</t>
   </si>
   <si>
-    <t>Infant Supplementary food</t>
+    <t>Infant Supplementary Food</t>
   </si>
   <si>
     <t>Feeding Methods</t>
@@ -170,12 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.Required for EDC
-2.The due date is greater than the current date.
+2.Due date should be after the current date.
 3.Format：YYYY-MM-DD </t>
   </si>
   <si>
     <t>1.Required for born babies.
-2.Birthday is less than the current date.
+2.Birth day should be before the current date.
 3. Format：YYYY-MM-DD</t>
   </si>
   <si>
@@ -356,7 +356,7 @@
     </r>
   </si>
   <si>
-    <t>WeChat/WhatApp/Telegram/…</t>
+    <t>WhatsApp/Telegram/Skype or other instant messaging account</t>
   </si>
 </sst>
 </file>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512D797-AA8A-A84D-B6EB-E937DE8930D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baby Roster" sheetId="1" r:id="rId4"/>
+    <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Baby ID</t>
   </si>
@@ -106,6 +115,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1.Required
 </t>
@@ -115,6 +125,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>2.Options:EDC</t>
     </r>
@@ -123,6 +134,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -132,13 +144,10 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/Birth</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Required
-</t>
   </si>
   <si>
     <r>
@@ -146,6 +155,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1.Required
 </t>
@@ -155,6 +165,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>2.Options：Male/Female/Unknown</t>
     </r>
@@ -163,6 +174,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -184,6 +196,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1.Optional for born babies.
 </t>
@@ -193,6 +206,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>2.Options：Add</t>
     </r>
@@ -201,6 +215,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -210,6 +225,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/No Add</t>
     </r>
@@ -220,6 +236,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1.Optional for born babies.
 </t>
@@ -229,6 +246,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>2.Options：Breast Milk/Milk Powder/Mixed/Terminated</t>
     </r>
@@ -237,6 +255,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -254,6 +273,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1.Required
 </t>
@@ -263,6 +283,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>2.Relatives Options: Mother/Father/Grandmother</t>
     </r>
@@ -271,6 +292,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -280,6 +302,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/Grandma</t>
     </r>
@@ -288,6 +311,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -297,6 +321,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/Grandfather</t>
     </r>
@@ -305,6 +330,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -314,6 +340,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/Grandpa</t>
     </r>
@@ -322,6 +349,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -331,6 +359,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>/Other</t>
     </r>
@@ -339,64 +368,59 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t xml:space="preserve">1.Required
-</t>
-    </r>
+    <t>WhatsApp/Telegram/Skype or other instant messaging account</t>
   </si>
   <si>
-    <t>WhatsApp/Telegram/Skype or other instant messaging account</t>
+    <t>1.Required
+2.Validation:
+Only allow 1-50 characters without special characters</t>
+  </si>
+  <si>
+    <t>1.Required
+2.Validation
+Only allow 1-50 characters without special characters</t>
+  </si>
+  <si>
+    <t>1.Required
+2.Validation
+Only allow 5-20 numbers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="13"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,60 +468,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,27 +526,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffebabb5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffcccccc"/>
-      <rgbColor rgb="ff4a4a4a"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEBABB5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF4A4A4A"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -730,7 +806,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -748,7 +824,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +853,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +878,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +903,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +928,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +953,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +978,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +1003,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1028,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1053,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,9 +1066,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1009,7 +1091,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1027,7 +1109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1159,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1184,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1127,7 +1209,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1234,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1259,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1284,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1309,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1334,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,9 +1347,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1281,7 +1369,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1299,7 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1416,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1441,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1466,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1491,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1516,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1541,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1566,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,7 +1591,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1528,7 +1616,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1541,188 +1629,198 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6719" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.8516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.8516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.6719" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.6719" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:29" ht="27.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="5">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="5">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="5">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="5">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="5">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="5">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="5">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="5">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="5">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="5">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="5">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="5">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" ht="88" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:29" ht="95" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="I2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s" s="6">
-        <v>36</v>
+      <c r="M2" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" t="s" s="7">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s" s="6">
-        <v>30</v>
+      <c r="O2" s="6" t="s">
+        <v>41</v>
       </c>
-      <c r="N2" t="s" s="6">
+      <c r="P2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="O2" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s" s="7">
-        <v>40</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -1738,7 +1836,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" ht="35" customHeight="1">
+    <row r="3" spans="1:29" ht="35" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -1769,7 +1867,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:29" ht="16" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -1800,7 +1898,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:29" ht="16" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1831,7 +1929,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:29" ht="16" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1862,7 +1960,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:29" ht="16" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1893,7 +1991,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:29" ht="16" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1924,7 +2022,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:29" ht="16" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1955,7 +2053,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:29" ht="16" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1986,7 +2084,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:29" ht="16" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2017,7 +2115,7 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:29" ht="16" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2048,7 +2146,7 @@
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:29" ht="16" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2079,7 +2177,7 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:29" ht="16" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2110,7 +2208,7 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:29" ht="16" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2141,7 +2239,7 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:29" ht="16" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2172,7 +2270,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:29" ht="16" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2203,7 +2301,7 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:29" ht="16" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2234,7 +2332,7 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:29" ht="16" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2265,7 +2363,7 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:29" ht="16" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2296,7 +2394,7 @@
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:29" ht="16" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2327,7 +2425,7 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:29" ht="16" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2358,7 +2456,7 @@
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:29" ht="16" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2389,7 +2487,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:29" ht="16" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2420,7 +2518,7 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:29" ht="16" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2451,7 +2549,7 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:29" ht="16" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2482,7 +2580,7 @@
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:29" ht="16" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2513,7 +2611,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:29" ht="16" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2544,7 +2642,7 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:29" ht="16" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2575,7 +2673,7 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:29" ht="16" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2606,7 +2704,7 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:29" ht="16" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2637,7 +2735,7 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:29" ht="16" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2668,7 +2766,7 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:29" ht="16" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2699,7 +2797,7 @@
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:29" ht="16" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2730,7 +2828,7 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:29" ht="16" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2761,7 +2859,7 @@
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:29" ht="16" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2792,7 +2890,7 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:29" ht="16" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2823,7 +2921,7 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:29" ht="16" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2854,7 +2952,7 @@
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:29" ht="16" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2885,7 +2983,7 @@
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:29" ht="16" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2916,7 +3014,7 @@
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:29" ht="16" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2947,7 +3045,7 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:29" ht="16" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2978,7 +3076,7 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3009,7 +3107,7 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:29" ht="16" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3040,7 +3138,7 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:29" ht="16" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3071,7 +3169,7 @@
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:29" ht="16" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3102,7 +3200,7 @@
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:29" ht="16" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3133,7 +3231,7 @@
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:29" ht="16" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3164,7 +3262,7 @@
       <c r="AB48" s="12"/>
       <c r="AC48" s="12"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:29" ht="16" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3195,7 +3293,7 @@
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:29" ht="16" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3226,7 +3324,7 @@
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:29" ht="16" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3257,7 +3355,7 @@
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:29" ht="16" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3288,7 +3386,7 @@
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:29" ht="16" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3319,7 +3417,7 @@
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:29" ht="16" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3350,7 +3448,7 @@
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:29" ht="16" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3381,7 +3479,7 @@
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:29" ht="16" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3412,7 +3510,7 @@
       <c r="AB56" s="12"/>
       <c r="AC56" s="12"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:29" ht="16" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3443,7 +3541,7 @@
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:29" ht="16" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3474,7 +3572,7 @@
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:29" ht="16" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3505,7 +3603,7 @@
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:29" ht="16" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3536,7 +3634,7 @@
       <c r="AB60" s="12"/>
       <c r="AC60" s="12"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:29" ht="16" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3567,7 +3665,7 @@
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:29" ht="16" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3598,7 +3696,7 @@
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:29" ht="16" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3629,7 +3727,7 @@
       <c r="AB63" s="12"/>
       <c r="AC63" s="12"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:29" ht="16" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3660,7 +3758,7 @@
       <c r="AB64" s="12"/>
       <c r="AC64" s="12"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:29" ht="16" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3691,7 +3789,7 @@
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:29" ht="16" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3722,7 +3820,7 @@
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:29" ht="16" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3753,7 +3851,7 @@
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:29" ht="16" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3784,7 +3882,7 @@
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:29" ht="16" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3815,7 +3913,7 @@
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:29" ht="16" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3846,7 +3944,7 @@
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:29" ht="16" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3877,7 +3975,7 @@
       <c r="AB71" s="12"/>
       <c r="AC71" s="12"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:29" ht="16" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3908,7 +4006,7 @@
       <c r="AB72" s="12"/>
       <c r="AC72" s="12"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" spans="1:29" ht="16" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3939,7 +4037,7 @@
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:29" ht="16" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3970,7 +4068,7 @@
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:29" ht="16" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4001,7 +4099,7 @@
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:29" ht="16" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4032,7 +4130,7 @@
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:29" ht="16" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4063,7 +4161,7 @@
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" spans="1:29" ht="16" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4094,7 +4192,7 @@
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:29" ht="16" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4125,7 +4223,7 @@
       <c r="AB79" s="12"/>
       <c r="AC79" s="12"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" spans="1:29" ht="16" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4156,7 +4254,7 @@
       <c r="AB80" s="12"/>
       <c r="AC80" s="12"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:29" ht="16" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4187,7 +4285,7 @@
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" spans="1:29" ht="16" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4218,7 +4316,7 @@
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:29" ht="16" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4249,7 +4347,7 @@
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" spans="1:29" ht="16" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4280,7 +4378,7 @@
       <c r="AB84" s="12"/>
       <c r="AC84" s="12"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" spans="1:29" ht="16" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4311,7 +4409,7 @@
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" spans="1:29" ht="16" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4342,7 +4440,7 @@
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" spans="1:29" ht="16" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4373,7 +4471,7 @@
       <c r="AB87" s="12"/>
       <c r="AC87" s="12"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" spans="1:29" ht="16" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4404,7 +4502,7 @@
       <c r="AB88" s="12"/>
       <c r="AC88" s="12"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" spans="1:29" ht="16" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4435,7 +4533,7 @@
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" spans="1:29" ht="16" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4466,7 +4564,7 @@
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" spans="1:29" ht="16" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4497,7 +4595,7 @@
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" spans="1:29" ht="16" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4528,7 +4626,7 @@
       <c r="AB92" s="12"/>
       <c r="AC92" s="12"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" spans="1:29" ht="16" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4559,7 +4657,7 @@
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" spans="1:29" ht="16" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4590,7 +4688,7 @@
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" spans="1:29" ht="16" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4621,7 +4719,7 @@
       <c r="AB95" s="12"/>
       <c r="AC95" s="12"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" spans="1:29" ht="16" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4652,7 +4750,7 @@
       <c r="AB96" s="12"/>
       <c r="AC96" s="12"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" spans="1:29" ht="16" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4683,7 +4781,7 @@
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" spans="1:29" ht="16" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4714,7 +4812,7 @@
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" spans="1:29" ht="16" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4745,7 +4843,7 @@
       <c r="AB99" s="12"/>
       <c r="AC99" s="12"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" spans="1:29" ht="16" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4776,7 +4874,7 @@
       <c r="AB100" s="12"/>
       <c r="AC100" s="12"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" spans="1:29" ht="16" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4807,7 +4905,7 @@
       <c r="AB101" s="12"/>
       <c r="AC101" s="12"/>
     </row>
-    <row r="102" ht="16" customHeight="1">
+    <row r="102" spans="1:29" ht="16" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4838,7 +4936,7 @@
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" spans="1:29" ht="16" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4869,7 +4967,7 @@
       <c r="AB103" s="12"/>
       <c r="AC103" s="12"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" spans="1:29" ht="16" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4900,7 +4998,7 @@
       <c r="AB104" s="12"/>
       <c r="AC104" s="12"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" spans="1:29" ht="16" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4931,7 +5029,7 @@
       <c r="AB105" s="12"/>
       <c r="AC105" s="12"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:29" ht="16" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4962,7 +5060,7 @@
       <c r="AB106" s="12"/>
       <c r="AC106" s="12"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" spans="1:29" ht="16" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4993,7 +5091,7 @@
       <c r="AB107" s="12"/>
       <c r="AC107" s="12"/>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" spans="1:29" ht="16" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -5024,7 +5122,7 @@
       <c r="AB108" s="12"/>
       <c r="AC108" s="12"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" spans="1:29" ht="16" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -5055,7 +5153,7 @@
       <c r="AB109" s="12"/>
       <c r="AC109" s="12"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" spans="1:29" ht="16" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -5086,7 +5184,7 @@
       <c r="AB110" s="12"/>
       <c r="AC110" s="12"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" spans="1:29" ht="16" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -5117,7 +5215,7 @@
       <c r="AB111" s="12"/>
       <c r="AC111" s="12"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" spans="1:29" ht="16" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -5148,7 +5246,7 @@
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" spans="1:29" ht="16" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -5179,7 +5277,7 @@
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" spans="1:29" ht="16" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -5210,7 +5308,7 @@
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:29" ht="16" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -5241,7 +5339,7 @@
       <c r="AB115" s="12"/>
       <c r="AC115" s="12"/>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" spans="1:29" ht="16" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -5272,7 +5370,7 @@
       <c r="AB116" s="12"/>
       <c r="AC116" s="12"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:29" ht="16" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -5303,7 +5401,7 @@
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" spans="1:29" ht="16" customHeight="1">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -5334,7 +5432,7 @@
       <c r="AB118" s="12"/>
       <c r="AC118" s="12"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
+    <row r="119" spans="1:29" ht="16" customHeight="1">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -5365,7 +5463,7 @@
       <c r="AB119" s="12"/>
       <c r="AC119" s="12"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" spans="1:29" ht="16" customHeight="1">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -5396,7 +5494,7 @@
       <c r="AB120" s="12"/>
       <c r="AC120" s="12"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" spans="1:29" ht="16" customHeight="1">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -5427,7 +5525,7 @@
       <c r="AB121" s="12"/>
       <c r="AC121" s="12"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
+    <row r="122" spans="1:29" ht="16" customHeight="1">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -5458,7 +5556,7 @@
       <c r="AB122" s="12"/>
       <c r="AC122" s="12"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" spans="1:29" ht="16" customHeight="1">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -5489,7 +5587,7 @@
       <c r="AB123" s="12"/>
       <c r="AC123" s="12"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
+    <row r="124" spans="1:29" ht="16" customHeight="1">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -5520,7 +5618,7 @@
       <c r="AB124" s="12"/>
       <c r="AC124" s="12"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
+    <row r="125" spans="1:29" ht="16" customHeight="1">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -5551,7 +5649,7 @@
       <c r="AB125" s="12"/>
       <c r="AC125" s="12"/>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" spans="1:29" ht="16" customHeight="1">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -5582,7 +5680,7 @@
       <c r="AB126" s="12"/>
       <c r="AC126" s="12"/>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" spans="1:29" ht="16" customHeight="1">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -5613,7 +5711,7 @@
       <c r="AB127" s="12"/>
       <c r="AC127" s="12"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
+    <row r="128" spans="1:29" ht="16" customHeight="1">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -5644,7 +5742,7 @@
       <c r="AB128" s="12"/>
       <c r="AC128" s="12"/>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" spans="1:29" ht="16" customHeight="1">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -5675,7 +5773,7 @@
       <c r="AB129" s="12"/>
       <c r="AC129" s="12"/>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" spans="1:29" ht="16" customHeight="1">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -5706,7 +5804,7 @@
       <c r="AB130" s="12"/>
       <c r="AC130" s="12"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" spans="1:29" ht="16" customHeight="1">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -5737,7 +5835,7 @@
       <c r="AB131" s="12"/>
       <c r="AC131" s="12"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" spans="1:29" ht="16" customHeight="1">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -5768,7 +5866,7 @@
       <c r="AB132" s="12"/>
       <c r="AC132" s="12"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:29" ht="16" customHeight="1">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -5799,7 +5897,7 @@
       <c r="AB133" s="12"/>
       <c r="AC133" s="12"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:29" ht="16" customHeight="1">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -5830,7 +5928,7 @@
       <c r="AB134" s="12"/>
       <c r="AC134" s="12"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" spans="1:29" ht="16" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -5861,7 +5959,7 @@
       <c r="AB135" s="12"/>
       <c r="AC135" s="12"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" spans="1:29" ht="16" customHeight="1">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5892,7 +5990,7 @@
       <c r="AB136" s="12"/>
       <c r="AC136" s="12"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" spans="1:29" ht="16" customHeight="1">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -5923,7 +6021,7 @@
       <c r="AB137" s="12"/>
       <c r="AC137" s="12"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:29" ht="16" customHeight="1">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -5954,7 +6052,7 @@
       <c r="AB138" s="12"/>
       <c r="AC138" s="12"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:29" ht="16" customHeight="1">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5985,7 +6083,7 @@
       <c r="AB139" s="12"/>
       <c r="AC139" s="12"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:29" ht="16" customHeight="1">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -6016,7 +6114,7 @@
       <c r="AB140" s="12"/>
       <c r="AC140" s="12"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:29" ht="16" customHeight="1">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -6047,7 +6145,7 @@
       <c r="AB141" s="12"/>
       <c r="AC141" s="12"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:29" ht="16" customHeight="1">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -6078,7 +6176,7 @@
       <c r="AB142" s="12"/>
       <c r="AC142" s="12"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:29" ht="16" customHeight="1">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -6109,7 +6207,7 @@
       <c r="AB143" s="12"/>
       <c r="AC143" s="12"/>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" spans="1:29" ht="16" customHeight="1">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -6140,7 +6238,7 @@
       <c r="AB144" s="12"/>
       <c r="AC144" s="12"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:29" ht="16" customHeight="1">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -6171,7 +6269,7 @@
       <c r="AB145" s="12"/>
       <c r="AC145" s="12"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:29" ht="16" customHeight="1">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -6202,7 +6300,7 @@
       <c r="AB146" s="12"/>
       <c r="AC146" s="12"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:29" ht="16" customHeight="1">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -6233,7 +6331,7 @@
       <c r="AB147" s="12"/>
       <c r="AC147" s="12"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:29" ht="16" customHeight="1">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -6264,7 +6362,7 @@
       <c r="AB148" s="12"/>
       <c r="AC148" s="12"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:29" ht="16" customHeight="1">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -6295,7 +6393,7 @@
       <c r="AB149" s="12"/>
       <c r="AC149" s="12"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:29" ht="16" customHeight="1">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -6326,7 +6424,7 @@
       <c r="AB150" s="12"/>
       <c r="AC150" s="12"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:29" ht="16" customHeight="1">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -6357,7 +6455,7 @@
       <c r="AB151" s="12"/>
       <c r="AC151" s="12"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:29" ht="16" customHeight="1">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -6388,7 +6486,7 @@
       <c r="AB152" s="12"/>
       <c r="AC152" s="12"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:29" ht="16" customHeight="1">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -6419,7 +6517,7 @@
       <c r="AB153" s="12"/>
       <c r="AC153" s="12"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:29" ht="16" customHeight="1">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -6450,7 +6548,7 @@
       <c r="AB154" s="12"/>
       <c r="AC154" s="12"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:29" ht="16" customHeight="1">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -6481,7 +6579,7 @@
       <c r="AB155" s="12"/>
       <c r="AC155" s="12"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:29" ht="16" customHeight="1">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -6512,7 +6610,7 @@
       <c r="AB156" s="12"/>
       <c r="AC156" s="12"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:29" ht="16" customHeight="1">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -6543,7 +6641,7 @@
       <c r="AB157" s="12"/>
       <c r="AC157" s="12"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:29" ht="16" customHeight="1">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -6574,7 +6672,7 @@
       <c r="AB158" s="12"/>
       <c r="AC158" s="12"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:29" ht="16" customHeight="1">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -6605,7 +6703,7 @@
       <c r="AB159" s="12"/>
       <c r="AC159" s="12"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:29" ht="16" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -6636,7 +6734,7 @@
       <c r="AB160" s="12"/>
       <c r="AC160" s="12"/>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" spans="1:29" ht="16" customHeight="1">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -6667,7 +6765,7 @@
       <c r="AB161" s="12"/>
       <c r="AC161" s="12"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:29" ht="16" customHeight="1">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -6698,7 +6796,7 @@
       <c r="AB162" s="12"/>
       <c r="AC162" s="12"/>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" spans="1:29" ht="16" customHeight="1">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -6729,7 +6827,7 @@
       <c r="AB163" s="12"/>
       <c r="AC163" s="12"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:29" ht="16" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -6760,7 +6858,7 @@
       <c r="AB164" s="12"/>
       <c r="AC164" s="12"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:29" ht="16" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -6791,7 +6889,7 @@
       <c r="AB165" s="12"/>
       <c r="AC165" s="12"/>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" spans="1:29" ht="16" customHeight="1">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -6822,7 +6920,7 @@
       <c r="AB166" s="12"/>
       <c r="AC166" s="12"/>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" spans="1:29" ht="16" customHeight="1">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -6853,7 +6951,7 @@
       <c r="AB167" s="12"/>
       <c r="AC167" s="12"/>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" spans="1:29" ht="16" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -6884,7 +6982,7 @@
       <c r="AB168" s="12"/>
       <c r="AC168" s="12"/>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" spans="1:29" ht="16" customHeight="1">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -6915,7 +7013,7 @@
       <c r="AB169" s="12"/>
       <c r="AC169" s="12"/>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" spans="1:29" ht="16" customHeight="1">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -6946,7 +7044,7 @@
       <c r="AB170" s="12"/>
       <c r="AC170" s="12"/>
     </row>
-    <row r="171" ht="16" customHeight="1">
+    <row r="171" spans="1:29" ht="16" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -6977,7 +7075,7 @@
       <c r="AB171" s="12"/>
       <c r="AC171" s="12"/>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" spans="1:29" ht="16" customHeight="1">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -7008,7 +7106,7 @@
       <c r="AB172" s="12"/>
       <c r="AC172" s="12"/>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" spans="1:29" ht="16" customHeight="1">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -7039,7 +7137,7 @@
       <c r="AB173" s="12"/>
       <c r="AC173" s="12"/>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" spans="1:29" ht="16" customHeight="1">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -7070,7 +7168,7 @@
       <c r="AB174" s="12"/>
       <c r="AC174" s="12"/>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" spans="1:29" ht="16" customHeight="1">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -7101,7 +7199,7 @@
       <c r="AB175" s="12"/>
       <c r="AC175" s="12"/>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" spans="1:29" ht="16" customHeight="1">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -7132,7 +7230,7 @@
       <c r="AB176" s="12"/>
       <c r="AC176" s="12"/>
     </row>
-    <row r="177" ht="16" customHeight="1">
+    <row r="177" spans="1:29" ht="16" customHeight="1">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -7163,7 +7261,7 @@
       <c r="AB177" s="12"/>
       <c r="AC177" s="12"/>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" spans="1:29" ht="16" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -7194,7 +7292,7 @@
       <c r="AB178" s="12"/>
       <c r="AC178" s="12"/>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" spans="1:29" ht="16" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -7225,7 +7323,7 @@
       <c r="AB179" s="12"/>
       <c r="AC179" s="12"/>
     </row>
-    <row r="180" ht="16" customHeight="1">
+    <row r="180" spans="1:29" ht="16" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -7256,7 +7354,7 @@
       <c r="AB180" s="12"/>
       <c r="AC180" s="12"/>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" spans="1:29" ht="16" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -7287,7 +7385,7 @@
       <c r="AB181" s="12"/>
       <c r="AC181" s="12"/>
     </row>
-    <row r="182" ht="16" customHeight="1">
+    <row r="182" spans="1:29" ht="16" customHeight="1">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -7318,7 +7416,7 @@
       <c r="AB182" s="12"/>
       <c r="AC182" s="12"/>
     </row>
-    <row r="183" ht="16" customHeight="1">
+    <row r="183" spans="1:29" ht="16" customHeight="1">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -7349,7 +7447,7 @@
       <c r="AB183" s="12"/>
       <c r="AC183" s="12"/>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" spans="1:29" ht="16" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -7380,7 +7478,7 @@
       <c r="AB184" s="12"/>
       <c r="AC184" s="12"/>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" spans="1:29" ht="16" customHeight="1">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -7411,7 +7509,7 @@
       <c r="AB185" s="12"/>
       <c r="AC185" s="12"/>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" spans="1:29" ht="16" customHeight="1">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -7442,7 +7540,7 @@
       <c r="AB186" s="12"/>
       <c r="AC186" s="12"/>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" spans="1:29" ht="16" customHeight="1">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -7473,7 +7571,7 @@
       <c r="AB187" s="12"/>
       <c r="AC187" s="12"/>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" spans="1:29" ht="16" customHeight="1">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -7504,7 +7602,7 @@
       <c r="AB188" s="12"/>
       <c r="AC188" s="12"/>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" spans="1:29" ht="16" customHeight="1">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -7535,7 +7633,7 @@
       <c r="AB189" s="12"/>
       <c r="AC189" s="12"/>
     </row>
-    <row r="190" ht="16" customHeight="1">
+    <row r="190" spans="1:29" ht="16" customHeight="1">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -7566,7 +7664,7 @@
       <c r="AB190" s="12"/>
       <c r="AC190" s="12"/>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" spans="1:29" ht="16" customHeight="1">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -7597,7 +7695,7 @@
       <c r="AB191" s="12"/>
       <c r="AC191" s="12"/>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" spans="1:29" ht="16" customHeight="1">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -7628,7 +7726,7 @@
       <c r="AB192" s="12"/>
       <c r="AC192" s="12"/>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" spans="1:29" ht="16" customHeight="1">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -7659,7 +7757,7 @@
       <c r="AB193" s="12"/>
       <c r="AC193" s="12"/>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" spans="1:29" ht="16" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -7690,7 +7788,7 @@
       <c r="AB194" s="12"/>
       <c r="AC194" s="12"/>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" spans="1:29" ht="16" customHeight="1">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -7721,7 +7819,7 @@
       <c r="AB195" s="12"/>
       <c r="AC195" s="12"/>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" spans="1:29" ht="16" customHeight="1">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -7754,18 +7852,18 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B196" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"待产期,已出生"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D196" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"男,女,未知"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N196" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"妈妈,爸爸,奶奶,爷爷,外婆,外公,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztang/workspace/unc/src/visit-link-admin-web/public/static/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjia.zhouthoughtworks.com/health-future-admin-frontend/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512D797-AA8A-A84D-B6EB-E937DE8930D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93260AEE-3753-CE43-B213-20A0FE89EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,46 +127,6 @@
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
-      <t>2.Options:EDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Birth</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.Required
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
       <t>2.Options：Male/Female/Unknown</t>
     </r>
     <r>
@@ -191,24 +151,49 @@
 3. Format：YYYY-MM-DD</t>
   </si>
   <si>
+    <t>1.Required</t>
+  </si>
+  <si>
+    <t>1.CHW ID must exist.</t>
+  </si>
+  <si>
+    <t>WhatsApp/Telegram/Skype or other instant messaging account</t>
+  </si>
+  <si>
+    <t>1.Required
+2.Validation:
+Only allow 1-50 characters without special characters</t>
+  </si>
+  <si>
+    <t>1.Required
+2.Validation
+Only allow 1-50 characters without special characters</t>
+  </si>
+  <si>
+    <t>1.Required
+2.Validation
+Only allow 5-20 numbers.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.Optional for born babies.
-</t>
+      <t>1.Optional for born babies.
+2.Options：Exclusive Breastfeeding|| Formula Feeding || Mixed Breast/Formula Feeding || No Breast/Formula Feeding/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color indexed="12"/>
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
-      <t>2.Options：Add</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Required
+2.Options:Born</t>
     </r>
     <r>
       <rPr>
@@ -227,170 +212,17 @@
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
-      <t>/No Add</t>
+      <t>/Birth</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.Optional for born babies.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.Options：Breast Milk/Milk Powder/Mixed/Terminated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>1.Optional for born babies.
+2.Options：Add/No Add</t>
   </si>
   <si>
-    <t>1.Required</t>
-  </si>
-  <si>
-    <t>1.CHW ID must exist.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.Required
+    <t xml:space="preserve">1.Required
+2.Relatives Options: Mother/Father/Paternal Grandmother/Maternal Grandmother/Paternal Grandfather/Maternal Grandfather
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.Relatives Options: Mother/Father/Grandmother</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Grandma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Grandfather</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Grandpa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>WhatsApp/Telegram/Skype or other instant messaging account</t>
-  </si>
-  <si>
-    <t>1.Required
-2.Validation:
-Only allow 1-50 characters without special characters</t>
-  </si>
-  <si>
-    <t>1.Required
-2.Validation
-Only allow 1-50 characters without special characters</t>
-  </si>
-  <si>
-    <t>1.Required
-2.Validation
-Only allow 5-20 numbers.</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1780,47 +1612,47 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>40</v>
+      <c r="N2" s="6" t="s">
+        <v>41</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjia.zhouthoughtworks.com/health-future-admin-frontend/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93260AEE-3753-CE43-B213-20A0FE89EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1469DE0E-32C8-4543-AC97-4DD3034F863B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,11 +141,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1.Required for EDC
-2.Due date should be after the current date.
-3.Format：YYYY-MM-DD </t>
-  </si>
-  <si>
     <t>1.Required for born babies.
 2.Birth day should be before the current date.
 3. Format：YYYY-MM-DD</t>
@@ -175,9 +170,18 @@
 Only allow 5-20 numbers.</t>
   </si>
   <si>
+    <t>1.Optional for born babies.
+2.Options：Add/No Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Required
+2.Relatives Options: Mother/Father/Paternal Grandmother/Maternal Grandmother/Paternal Grandfather/Maternal Grandfather
+</t>
+  </si>
+  <si>
     <r>
       <t>1.Optional for born babies.
-2.Options：Exclusive Breastfeeding|| Formula Feeding || Mixed Breast/Formula Feeding || No Breast/Formula Feeding/</t>
+2.Options：Exclusive Breastfeeding||Formula Feeding || Mixed Breast/Formula Feeding || No Breast/Formula Feeding</t>
     </r>
     <r>
       <rPr>
@@ -191,38 +195,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1.Required
-2.Options:Born</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Birth</t>
-    </r>
+    <t>1.Required
+2.Options:Unborn/Born</t>
   </si>
   <si>
-    <t>1.Optional for born babies.
-2.Options：Add/No Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Required
-2.Relatives Options: Mother/Father/Paternal Grandmother/Maternal Grandmother/Paternal Grandfather/Maternal Grandfather
-</t>
+    <t xml:space="preserve">1.Required for Unborn
+2.Due date should be after the current date.
+3.Format：YYYY-MM-DD </t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1612,47 +1591,47 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjia.zhouthoughtworks.com/health-future-admin-frontend/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1469DE0E-32C8-4543-AC97-4DD3034F863B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A9E3A5-1BD0-F24A-83F3-53859C04108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,6 @@
 Only allow 5-20 numbers.</t>
   </si>
   <si>
-    <t>1.Optional for born babies.
-2.Options：Add/No Add</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Required
 2.Relatives Options: Mother/Father/Paternal Grandmother/Maternal Grandmother/Paternal Grandfather/Maternal Grandfather
 </t>
@@ -202,6 +198,10 @@
     <t xml:space="preserve">1.Required for Unborn
 2.Due date should be after the current date.
 3.Format：YYYY-MM-DD </t>
+  </si>
+  <si>
+    <t>1.Optional for born babies.
+2.Options：Yes/No</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1591,7 +1591,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>34</v>
@@ -1600,16 +1600,16 @@
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>31</v>
@@ -1625,7 +1625,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>36</v>

--- a/public/static/template/import_baby_en.xlsx
+++ b/public/static/template/import_baby_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjia.zhouthoughtworks.com/health-future-admin-frontend/public/static/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang.li/Work/UNC/repo/visit-link-admin-web/public/static/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A9E3A5-1BD0-F24A-83F3-53859C04108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09247FBF-0B17-5841-8834-FDDCB1C80AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30580" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baby Roster" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Feeding Methods</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Comments</t>
@@ -202,6 +196,12 @@
   <si>
     <t>1.Optional for born babies.
 2.Options：Yes/No</t>
+  </si>
+  <si>
+    <t>Building Address</t>
+  </si>
+  <si>
+    <t>Detailed Address</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.75" customHeight="1"/>
@@ -1525,113 +1525,113 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" ht="95" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5"/>
-    </row>
-    <row r="2" spans="1:29" ht="95" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="O2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
